--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$14</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Nr</t>
   </si>
@@ -67,6 +70,96 @@
   </si>
   <si>
     <t>pag.45</t>
+  </si>
+  <si>
+    <t>29.10.2024</t>
+  </si>
+  <si>
+    <t>29.10.2025</t>
+  </si>
+  <si>
+    <t>29.10.2026</t>
+  </si>
+  <si>
+    <t>Mircea Eliade</t>
+  </si>
+  <si>
+    <t>Marin Preda</t>
+  </si>
+  <si>
+    <t>George Calinescu</t>
+  </si>
+  <si>
+    <t>George Bacovia</t>
+  </si>
+  <si>
+    <t>Nichita Stanescu</t>
+  </si>
+  <si>
+    <t>Ion Luca Caragiale</t>
+  </si>
+  <si>
+    <t>Mihail Sadoveanu</t>
+  </si>
+  <si>
+    <t>Eugen Barbu</t>
+  </si>
+  <si>
+    <t>Mateiu Caragiale</t>
+  </si>
+  <si>
+    <t>Ion Argabiceanu</t>
+  </si>
+  <si>
+    <t>La tiganci</t>
+  </si>
+  <si>
+    <t>Morometii</t>
+  </si>
+  <si>
+    <t>Enigma Otiliei</t>
+  </si>
+  <si>
+    <t>Plumb</t>
+  </si>
+  <si>
+    <t>Oul si sfera</t>
+  </si>
+  <si>
+    <t>Hanul Ancutei</t>
+  </si>
+  <si>
+    <t>Principele</t>
+  </si>
+  <si>
+    <t>O scrisoare pierduta</t>
+  </si>
+  <si>
+    <t>Nepasta</t>
+  </si>
+  <si>
+    <t>Padurea spanzuratilor</t>
+  </si>
+  <si>
+    <t>pag.111</t>
+  </si>
+  <si>
+    <t>pag.23</t>
+  </si>
+  <si>
+    <t>pag.56</t>
+  </si>
+  <si>
+    <t>pag.90</t>
+  </si>
+  <si>
+    <t>pag.12</t>
+  </si>
+  <si>
+    <t>pag.47</t>
+  </si>
+  <si>
+    <t>pag.450</t>
   </si>
 </sst>
 </file>
@@ -384,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +559,183 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E14">
+    <sortState ref="A2:E14">
+      <sortCondition ref="A1:A14"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -183,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -191,12 +191,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -480,7 +496,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,249 +508,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14">
-    <sortState ref="A2:E14">
-      <sortCondition ref="A1:A14"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
